--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Adam23</t>
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H2">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I2">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J2">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>21.44849958854067</v>
+        <v>11.87112343609344</v>
       </c>
       <c r="R2">
-        <v>193.036496296866</v>
+        <v>106.840110924841</v>
       </c>
       <c r="S2">
-        <v>0.00642145902574204</v>
+        <v>0.003876877374362581</v>
       </c>
       <c r="T2">
-        <v>0.00642145902574204</v>
+        <v>0.003876877374362581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H3">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I3">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J3">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>26.67313821791111</v>
+        <v>12.38347105924445</v>
       </c>
       <c r="R3">
-        <v>240.0582439611999</v>
+        <v>111.4512395332</v>
       </c>
       <c r="S3">
-        <v>0.007985661815047453</v>
+        <v>0.004044200115019402</v>
       </c>
       <c r="T3">
-        <v>0.007985661815047453</v>
+        <v>0.004044200115019402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H4">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I4">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J4">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>19.98524141464322</v>
+        <v>5.803207377953555</v>
       </c>
       <c r="R4">
-        <v>179.867172731789</v>
+        <v>52.228866401582</v>
       </c>
       <c r="S4">
-        <v>0.005983374656764328</v>
+        <v>0.001895214341206943</v>
       </c>
       <c r="T4">
-        <v>0.005983374656764327</v>
+        <v>0.001895214341206943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H5">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I5">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J5">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>3.236316466249333</v>
+        <v>1.504111075147</v>
       </c>
       <c r="R5">
-        <v>29.126848196244</v>
+        <v>13.536999676323</v>
       </c>
       <c r="S5">
-        <v>0.0009689196904690497</v>
+        <v>0.0004912133402670213</v>
       </c>
       <c r="T5">
-        <v>0.0009689196904690497</v>
+        <v>0.0004912133402670213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H6">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I6">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J6">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>17.19083461562155</v>
+        <v>4.289424341307</v>
       </c>
       <c r="R6">
-        <v>154.717511540594</v>
+        <v>38.604819071763</v>
       </c>
       <c r="S6">
-        <v>0.005146758151861594</v>
+        <v>0.001400842326960564</v>
       </c>
       <c r="T6">
-        <v>0.005146758151861594</v>
+        <v>0.001400842326960564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>52.897882</v>
       </c>
       <c r="I7">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J7">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>756.6021796282492</v>
+        <v>901.974405065628</v>
       </c>
       <c r="R7">
-        <v>6809.419616654243</v>
+        <v>8117.769645590653</v>
       </c>
       <c r="S7">
-        <v>0.2265188702460883</v>
+        <v>0.2945672481697172</v>
       </c>
       <c r="T7">
-        <v>0.2265188702460883</v>
+        <v>0.2945672481697172</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>52.897882</v>
       </c>
       <c r="I8">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J8">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>940.9028556934219</v>
+        <v>940.9028556934222</v>
       </c>
       <c r="R8">
-        <v>8468.125701240797</v>
+        <v>8468.1257012408</v>
       </c>
       <c r="S8">
-        <v>0.2816965872180187</v>
+        <v>0.3072805208663029</v>
       </c>
       <c r="T8">
-        <v>0.2816965872180187</v>
+        <v>0.307280520866303</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>52.897882</v>
       </c>
       <c r="I9">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J9">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>704.9853138815585</v>
+        <v>440.9308478999897</v>
       </c>
       <c r="R9">
-        <v>6344.867824934026</v>
+        <v>3968.377631099907</v>
       </c>
       <c r="S9">
-        <v>0.2110653142963429</v>
+        <v>0.1439994148055561</v>
       </c>
       <c r="T9">
-        <v>0.2110653142963429</v>
+        <v>0.1439994148055561</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>52.897882</v>
       </c>
       <c r="I10">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J10">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>114.1620224866106</v>
+        <v>114.283176269018</v>
       </c>
       <c r="R10">
-        <v>1027.458202379496</v>
+        <v>1028.548586421162</v>
       </c>
       <c r="S10">
-        <v>0.03417892923779523</v>
+        <v>0.03732265633769279</v>
       </c>
       <c r="T10">
-        <v>0.03417892923779523</v>
+        <v>0.0373226563376928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>52.897882</v>
       </c>
       <c r="I11">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J11">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>606.411785874155</v>
+        <v>325.912790744058</v>
       </c>
       <c r="R11">
-        <v>5457.706072867395</v>
+        <v>2933.215116696522</v>
       </c>
       <c r="S11">
-        <v>0.1815534191397902</v>
+        <v>0.106436760703653</v>
       </c>
       <c r="T11">
-        <v>0.1815534191397902</v>
+        <v>0.106436760703653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H12">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I12">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J12">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>0.6069651351013333</v>
+        <v>37.74339397740178</v>
       </c>
       <c r="R12">
-        <v>5.462686215912</v>
+        <v>339.690545796616</v>
       </c>
       <c r="S12">
-        <v>0.000181719086177458</v>
+        <v>0.01232625630845896</v>
       </c>
       <c r="T12">
-        <v>0.000181719086177458</v>
+        <v>0.01232625630845897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H13">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I13">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J13">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>0.7548157331555554</v>
+        <v>39.37236686257778</v>
       </c>
       <c r="R13">
-        <v>6.793341598399999</v>
+        <v>354.3513017632001</v>
       </c>
       <c r="S13">
-        <v>0.0002259840266418199</v>
+        <v>0.01285824708051914</v>
       </c>
       <c r="T13">
-        <v>0.0002259840266418199</v>
+        <v>0.01285824708051914</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H14">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I14">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J14">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>0.5655567982831111</v>
+        <v>18.45088576307022</v>
       </c>
       <c r="R14">
-        <v>5.090011184548001</v>
+        <v>166.057971867632</v>
       </c>
       <c r="S14">
-        <v>0.0001693218582452812</v>
+        <v>0.006025699415634696</v>
       </c>
       <c r="T14">
-        <v>0.0001693218582452812</v>
+        <v>0.006025699415634697</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H15">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I15">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J15">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>0.09158362117866667</v>
+        <v>4.782214354072</v>
       </c>
       <c r="R15">
-        <v>0.8242525906079999</v>
+        <v>43.039929186648</v>
       </c>
       <c r="S15">
-        <v>2.741918931905589E-05</v>
+        <v>0.001561777933525967</v>
       </c>
       <c r="T15">
-        <v>2.741918931905589E-05</v>
+        <v>0.001561777933525968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H16">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I16">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J16">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>0.4864786560897778</v>
+        <v>13.637920094232</v>
       </c>
       <c r="R16">
-        <v>4.378307904808</v>
+        <v>122.741280848088</v>
       </c>
       <c r="S16">
-        <v>0.0001456466800431847</v>
+        <v>0.004453878702493904</v>
       </c>
       <c r="T16">
-        <v>0.0001456466800431847</v>
+        <v>0.004453878702493905</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H17">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I17">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J17">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>30.53119303741999</v>
+        <v>58.51076241251655</v>
       </c>
       <c r="R17">
-        <v>274.78073733678</v>
+        <v>526.596861712649</v>
       </c>
       <c r="S17">
-        <v>0.009140723540473654</v>
+        <v>0.01910847378303719</v>
       </c>
       <c r="T17">
-        <v>0.009140723540473654</v>
+        <v>0.01910847378303719</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H18">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I18">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J18">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>37.96828437733332</v>
+        <v>61.03603731275556</v>
       </c>
       <c r="R18">
-        <v>341.7145593959999</v>
+        <v>549.3243358148001</v>
       </c>
       <c r="S18">
-        <v>0.01136731179727972</v>
+        <v>0.01993317931132913</v>
       </c>
       <c r="T18">
-        <v>0.01136731179727972</v>
+        <v>0.01993317931132914</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H19">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I19">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J19">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>28.44829592909666</v>
+        <v>28.60302901826644</v>
       </c>
       <c r="R19">
-        <v>256.03466336187</v>
+        <v>257.427261164398</v>
       </c>
       <c r="S19">
-        <v>0.008517125680832186</v>
+        <v>0.009341191390698353</v>
       </c>
       <c r="T19">
-        <v>0.008517125680832186</v>
+        <v>0.009341191390698353</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H20">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I20">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J20">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>4.606783908279999</v>
+        <v>7.413509448682999</v>
       </c>
       <c r="R20">
-        <v>41.46105517451999</v>
+        <v>66.721585038147</v>
       </c>
       <c r="S20">
-        <v>0.001379223473667723</v>
+        <v>0.002421107589433045</v>
       </c>
       <c r="T20">
-        <v>0.001379223473667723</v>
+        <v>0.002421107589433046</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H21">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I21">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J21">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>24.47055505944666</v>
+        <v>21.141848104923</v>
       </c>
       <c r="R21">
-        <v>220.2349955350199</v>
+        <v>190.276632944307</v>
       </c>
       <c r="S21">
-        <v>0.007326231189400075</v>
+        <v>0.006904515230713434</v>
       </c>
       <c r="T21">
-        <v>0.007326231189400075</v>
+        <v>0.006904515230713435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.223026</v>
+      </c>
+      <c r="I22">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J22">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>51.15371566666666</v>
+      </c>
+      <c r="N22">
+        <v>153.461147</v>
+      </c>
+      <c r="O22">
+        <v>0.3311207986511828</v>
+      </c>
+      <c r="P22">
+        <v>0.3311207986511828</v>
+      </c>
+      <c r="Q22">
+        <v>3.802869530091333</v>
+      </c>
+      <c r="R22">
+        <v>34.225825770822</v>
+      </c>
+      <c r="S22">
+        <v>0.001241943015606926</v>
+      </c>
+      <c r="T22">
+        <v>0.001241943015606926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.223026</v>
+      </c>
+      <c r="I23">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J23">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N23">
+        <v>160.0844</v>
+      </c>
+      <c r="O23">
+        <v>0.3454116915964105</v>
+      </c>
+      <c r="P23">
+        <v>0.3454116915964106</v>
+      </c>
+      <c r="Q23">
+        <v>3.966998154933334</v>
+      </c>
+      <c r="R23">
+        <v>35.70298339440001</v>
+      </c>
+      <c r="S23">
+        <v>0.001295544223239942</v>
+      </c>
+      <c r="T23">
+        <v>0.001295544223239942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.223026</v>
+      </c>
+      <c r="I24">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J24">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>25.00653133333333</v>
+      </c>
+      <c r="N24">
+        <v>75.019594</v>
+      </c>
+      <c r="O24">
+        <v>0.1618686447050176</v>
+      </c>
+      <c r="P24">
+        <v>0.1618686447050176</v>
+      </c>
+      <c r="Q24">
+        <v>1.859035552382667</v>
+      </c>
+      <c r="R24">
+        <v>16.731319971444</v>
+      </c>
+      <c r="S24">
+        <v>0.0006071247519215225</v>
+      </c>
+      <c r="T24">
+        <v>0.0006071247519215225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.223026</v>
+      </c>
+      <c r="I25">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J25">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.481347</v>
+      </c>
+      <c r="N25">
+        <v>19.444041</v>
+      </c>
+      <c r="O25">
+        <v>0.0419541135381084</v>
+      </c>
+      <c r="P25">
+        <v>0.0419541135381084</v>
+      </c>
+      <c r="Q25">
+        <v>0.481836298674</v>
+      </c>
+      <c r="R25">
+        <v>4.336526688066</v>
+      </c>
+      <c r="S25">
+        <v>0.0001573583371895736</v>
+      </c>
+      <c r="T25">
+        <v>0.0001573583371895736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.223026</v>
+      </c>
+      <c r="I26">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J26">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>18.483507</v>
+      </c>
+      <c r="N26">
+        <v>55.450521</v>
+      </c>
+      <c r="O26">
+        <v>0.1196447515092806</v>
+      </c>
+      <c r="P26">
+        <v>0.1196447515092806</v>
+      </c>
+      <c r="Q26">
+        <v>1.374100877394</v>
+      </c>
+      <c r="R26">
+        <v>12.366907896546</v>
+      </c>
+      <c r="S26">
+        <v>0.0004487545454597391</v>
+      </c>
+      <c r="T26">
+        <v>0.0004487545454597391</v>
       </c>
     </row>
   </sheetData>
